--- a/aula_liocourt_trabalho_final.xlsx
+++ b/aula_liocourt_trabalho_final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="simulações 7" sheetId="3" r:id="rId3"/>
     <sheet name="simulação 7" sheetId="4" r:id="rId4"/>
     <sheet name="comparação" sheetId="5" r:id="rId5"/>
+    <sheet name="exercicio" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -337,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="60">
   <si>
     <t>c</t>
   </si>
@@ -535,6 +536,12 @@
   <si>
     <t>q 1,5</t>
   </si>
+  <si>
+    <t>classe d (cm)</t>
+  </si>
+  <si>
+    <t>freq / há</t>
+  </si>
 </sst>
 </file>
 
@@ -643,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -684,6 +691,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1941,7 +1949,7 @@
             <c:numRef>
               <c:f>'simulações 7'!$I$2:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>45.459927833606898</c:v>
@@ -2185,7 +2193,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2523,7 +2531,7 @@
             <c:numRef>
               <c:f>'simulações 7'!$I$2:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>45.459927833606898</c:v>
@@ -3032,7 +3040,7 @@
             <c:numRef>
               <c:f>'simulação 7'!$I$2:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>134.70210747933143</c:v>
@@ -3125,7 +3133,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3246,7 +3253,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3276,7 +3282,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3396,7 +3402,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3614,7 +3619,7 @@
             <c:numRef>
               <c:f>'simulação 7'!$I$2:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>134.70210747933143</c:v>
@@ -3711,7 +3716,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3832,7 +3836,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3907,7 +3910,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7934,7 +7936,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8063,15 +8065,15 @@
         <v>0.36443148688046645</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H15" si="5">F4*G4</f>
+        <f>F4*G4</f>
         <v>81.997084548104951</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I15" si="6">EXP($C$44+$C$42*A4)</f>
+        <f t="shared" ref="I4:I15" si="5">EXP($C$44+$C$42*A4)</f>
         <v>101.086669051402</v>
       </c>
       <c r="J4" s="9">
-        <f t="shared" ref="J4:J15" si="7">B4-I4</f>
+        <f t="shared" ref="J4:J15" si="6">B4-I4</f>
         <v>-28.086669051401998</v>
       </c>
     </row>
@@ -8103,15 +8105,15 @@
         <v>0.26030820491461887</v>
       </c>
       <c r="H5" s="6">
+        <f t="shared" ref="H4:H15" si="7">F5*G5</f>
+        <v>104.12328196584755</v>
+      </c>
+      <c r="I5" s="9">
         <f t="shared" si="5"/>
-        <v>104.12328196584755</v>
-      </c>
-      <c r="I5" s="9">
+        <v>72.204763608144276</v>
+      </c>
+      <c r="J5" s="9">
         <f t="shared" si="6"/>
-        <v>72.204763608144276</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" si="7"/>
         <v>-30.204763608144276</v>
       </c>
     </row>
@@ -8143,15 +8145,15 @@
         <v>0.18593443208187066</v>
       </c>
       <c r="H6" s="6">
+        <f t="shared" si="7"/>
+        <v>116.20902005116916</v>
+      </c>
+      <c r="I6" s="9">
         <f t="shared" si="5"/>
-        <v>116.20902005116916</v>
-      </c>
-      <c r="I6" s="9">
+        <v>51.574831148674484</v>
+      </c>
+      <c r="J6" s="9">
         <f t="shared" si="6"/>
-        <v>51.574831148674484</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" si="7"/>
         <v>-13.574831148674484</v>
       </c>
     </row>
@@ -8183,15 +8185,15 @@
         <v>0.13281030862990759</v>
       </c>
       <c r="H7" s="6">
+        <f t="shared" si="7"/>
+        <v>119.52927776691683</v>
+      </c>
+      <c r="I7" s="9">
         <f t="shared" si="5"/>
-        <v>119.52927776691683</v>
-      </c>
-      <c r="I7" s="9">
+        <v>36.839165106196063</v>
+      </c>
+      <c r="J7" s="9">
         <f t="shared" si="6"/>
-        <v>36.839165106196063</v>
-      </c>
-      <c r="J7" s="9">
-        <f t="shared" si="7"/>
         <v>-3.839165106196063</v>
       </c>
     </row>
@@ -8223,15 +8225,15 @@
         <v>9.4864506164219708E-2</v>
       </c>
       <c r="H8" s="6">
+        <f t="shared" si="7"/>
+        <v>116.20902005116915</v>
+      </c>
+      <c r="I8" s="9">
         <f t="shared" si="5"/>
-        <v>116.20902005116915</v>
-      </c>
-      <c r="I8" s="9">
+        <v>26.313689361568613</v>
+      </c>
+      <c r="J8" s="9">
         <f t="shared" si="6"/>
-        <v>26.313689361568613</v>
-      </c>
-      <c r="J8" s="9">
-        <f t="shared" si="7"/>
         <v>9.6863106384313866</v>
       </c>
     </row>
@@ -8263,15 +8265,15 @@
         <v>6.7760361545871214E-2</v>
       </c>
       <c r="H9" s="6">
+        <f t="shared" si="7"/>
+        <v>108.41657847339394</v>
+      </c>
+      <c r="I9" s="9">
         <f t="shared" si="5"/>
-        <v>108.41657847339394</v>
-      </c>
-      <c r="I9" s="9">
+        <v>18.795492401120438</v>
+      </c>
+      <c r="J9" s="9">
         <f t="shared" si="6"/>
-        <v>18.795492401120438</v>
-      </c>
-      <c r="J9" s="9">
-        <f t="shared" si="7"/>
         <v>13.204507598879562</v>
       </c>
     </row>
@@ -8303,15 +8305,15 @@
         <v>4.8400258247050888E-2</v>
       </c>
       <c r="H10">
+        <f t="shared" si="7"/>
+        <v>98.010522950278045</v>
+      </c>
+      <c r="I10" s="9">
         <f t="shared" si="5"/>
-        <v>98.010522950278045</v>
-      </c>
-      <c r="I10" s="9">
+        <v>13.425351715086032</v>
+      </c>
+      <c r="J10" s="9">
         <f t="shared" si="6"/>
-        <v>13.425351715086032</v>
-      </c>
-      <c r="J10" s="9">
-        <f t="shared" si="7"/>
         <v>13.574648284913968</v>
       </c>
       <c r="L10">
@@ -8347,15 +8349,15 @@
         <v>3.4571613033607777E-2</v>
       </c>
       <c r="H11">
+        <f t="shared" si="7"/>
+        <v>86.429032584019438</v>
+      </c>
+      <c r="I11" s="9">
         <f t="shared" si="5"/>
-        <v>86.429032584019438</v>
-      </c>
-      <c r="I11" s="9">
+        <v>9.5895369393471661</v>
+      </c>
+      <c r="J11" s="9">
         <f t="shared" si="6"/>
-        <v>9.5895369393471661</v>
-      </c>
-      <c r="J11" s="9">
-        <f t="shared" si="7"/>
         <v>5.4104630606528339</v>
       </c>
       <c r="L11">
@@ -8391,15 +8393,15 @@
         <v>2.4694009309719839E-2</v>
       </c>
       <c r="H12">
+        <f t="shared" si="7"/>
+        <v>74.699378161902516</v>
+      </c>
+      <c r="I12" s="9">
         <f t="shared" si="5"/>
-        <v>74.699378161902516</v>
-      </c>
-      <c r="I12" s="9">
+        <v>6.8496692423908332</v>
+      </c>
+      <c r="J12" s="9">
         <f t="shared" si="6"/>
-        <v>6.8496692423908332</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="7"/>
         <v>-2.8496692423908332</v>
       </c>
       <c r="L12">
@@ -8435,15 +8437,15 @@
         <v>1.7638578078371308E-2</v>
       </c>
       <c r="H13">
+        <f t="shared" si="7"/>
+        <v>63.498881082136705</v>
+      </c>
+      <c r="I13" s="9">
         <f t="shared" si="5"/>
-        <v>63.498881082136705</v>
-      </c>
-      <c r="I13" s="9">
+        <v>4.8926208874220212</v>
+      </c>
+      <c r="J13" s="9">
         <f t="shared" si="6"/>
-        <v>4.8926208874220212</v>
-      </c>
-      <c r="J13" s="9">
-        <f t="shared" si="7"/>
         <v>-0.89262088742202117</v>
       </c>
       <c r="L13">
@@ -8479,15 +8481,15 @@
         <v>1.259898434169379E-2</v>
       </c>
       <c r="H14">
+        <f t="shared" si="7"/>
+        <v>53.230708843656267</v>
+      </c>
+      <c r="I14" s="9">
         <f t="shared" si="5"/>
-        <v>53.230708843656267</v>
-      </c>
-      <c r="I14" s="9">
+        <v>3.4947292053014434</v>
+      </c>
+      <c r="J14" s="9">
         <f t="shared" si="6"/>
-        <v>3.4947292053014434</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" si="7"/>
         <v>-0.49472920530144338</v>
       </c>
     </row>
@@ -8519,15 +8521,15 @@
         <v>8.9992745297812794E-3</v>
       </c>
       <c r="H15">
+        <f t="shared" si="7"/>
+        <v>44.096445195928268</v>
+      </c>
+      <c r="I15" s="9">
         <f t="shared" si="5"/>
-        <v>44.096445195928268</v>
-      </c>
-      <c r="I15" s="9">
+        <v>2.4962351466438881</v>
+      </c>
+      <c r="J15" s="9">
         <f t="shared" si="6"/>
-        <v>2.4962351466438881</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="7"/>
         <v>-0.49623514664388813</v>
       </c>
     </row>
@@ -8860,7 +8862,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10933,7 +10935,7 @@
         <v>11.072049999999999</v>
       </c>
       <c r="L3" s="13">
-        <f t="shared" ref="L3:L13" si="9" xml:space="preserve"> 0.0071+(0.00005*A3^2)+(0.00003*(A3^2*K3))+(0.00004*(A3*K3^2))-(0.0006*K3^2)</f>
+        <f t="shared" ref="L3:L12" si="9" xml:space="preserve"> 0.0071+(0.00005*A3^2)+(0.00003*(A3^2*K3))+(0.00004*(A3*K3^2))-(0.0006*K3^2)</f>
         <v>0.13639598849524998</v>
       </c>
       <c r="M3" s="13"/>
@@ -11750,7 +11752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -11808,4 +11810,863 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <v>119</v>
+      </c>
+      <c r="C2" s="13">
+        <f>LN(B2)</f>
+        <v>4.7791234931115296</v>
+      </c>
+      <c r="D2" s="13">
+        <f>PI()*A2^2/40000</f>
+        <v>7.8539816339744835E-3</v>
+      </c>
+      <c r="E2" s="13">
+        <f>D2*B2</f>
+        <v>0.9346238144429635</v>
+      </c>
+      <c r="F2">
+        <f>A2*A2</f>
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <f>EXP($B$39*A2)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H2">
+        <f>F2*G2</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="I2">
+        <f>EXP($B$41+$B$39*A2)</f>
+        <v>168.16564128319425</v>
+      </c>
+      <c r="J2">
+        <f>B2-I2</f>
+        <v>-49.165641283194248</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6">
+        <v>82</v>
+      </c>
+      <c r="C3" s="13">
+        <f t="shared" ref="C3:C14" si="0">LN(B3)</f>
+        <v>4.4067192472642533</v>
+      </c>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:D14" si="1">PI()*A3^2/40000</f>
+        <v>1.7671458676442587E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E14" si="2">D3*B3</f>
+        <v>1.4490596114682921</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F14" si="3">A3*A3</f>
+        <v>225</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G14" si="4">EXP($B$39*A3)</f>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H14" si="5">F3*G3</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I14" si="6">EXP($B$41+$B$39*A3)</f>
+        <v>112.11042752212948</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J14" si="7">B3-I3</f>
+        <v>-30.110427522129484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>65</v>
+      </c>
+      <c r="C4" s="13">
+        <f t="shared" si="0"/>
+        <v>4.1743872698956368</v>
+      </c>
+      <c r="D4" s="13">
+        <f t="shared" si="1"/>
+        <v>3.1415926535897934E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="2"/>
+        <v>2.0420352248333655</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>0.19753086419753085</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>79.012345679012341</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="6"/>
+        <v>74.74028501475297</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="7"/>
+        <v>-9.7402850147529705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6">
+        <v>52</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" si="0"/>
+        <v>3.9512437185814275</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" si="1"/>
+        <v>4.9087385212340517E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="2"/>
+        <v>2.5525440310417071</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>625</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>0.13168724279835395</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>82.304526748971213</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="6"/>
+        <v>49.82685667650199</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="7"/>
+        <v>2.1731433234980102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
+        <v>42</v>
+      </c>
+      <c r="C6" s="13">
+        <f t="shared" si="0"/>
+        <v>3.7376696182833684</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="1"/>
+        <v>7.0685834705770348E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="2"/>
+        <v>2.9688050576423546</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>8.77914951989026E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>79.012345679012341</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>33.217904451001317</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="7"/>
+        <v>8.7820955489986829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13">
+        <f t="shared" si="0"/>
+        <v>3.2958368660043291</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="1"/>
+        <v>9.6211275016187411E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="2"/>
+        <v>2.59770442543706</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>1225</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>5.8527663465935083E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>71.69638774577048</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>22.145269634000886</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="7"/>
+        <v>4.8547303659991137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6">
+        <v>15</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" si="0"/>
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12566370614359174</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="2"/>
+        <v>1.8849555921538761</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>3.9018442310623382E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>62.429507696997412</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>14.763513089333919</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>0.23648691066608052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>45</v>
+      </c>
+      <c r="B9" s="22">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.15904312808798327</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="2"/>
+        <v>1.5904312808798327</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>2025</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>2.6012294873748926E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>52.674897119341573</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>9.8423420595559481</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>0.1576579404440519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" si="0"/>
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.19634954084936207</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="2"/>
+        <v>1.7671458676442586</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>1.7341529915832619E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>43.353824789581552</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>6.5615613730373008</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>2.4384386269626992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="0"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.23758294442772812</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="2"/>
+        <v>1.1879147221386406</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>3025</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>1.1561019943888411E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>34.972085330262445</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>4.3743742486915327</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>0.62562575130846731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.28274333882308139</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="2"/>
+        <v>0.84823001646924423</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>7.7073466292589387E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>27.746447865332179</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>2.9162494991276877</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>8.3750500872312283E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.33183072403542191</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="2"/>
+        <v>0.66366144807084382</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>4225</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>5.1382310861726298E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>21.709026339079362</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>1.9441663327517931</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>5.5833667248206931E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.38484510006474965</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="2"/>
+        <v>0.38484510006474965</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>4900</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>3.4254873907817521E-3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>16.784888214830584</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>1.2961108885011952</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>-0.29611088850119516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E15" s="13">
+        <f>SUM(E2:E8)</f>
+        <v>14.429727757019618</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H2:H8)</f>
+        <v>485.56622466087492</v>
+      </c>
+      <c r="J15">
+        <f>2+9+5+2+1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.99161860163470383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.98330745110796536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.98178994666323505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.20571580414119756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27.421718844852563</v>
+      </c>
+      <c r="D28" s="2">
+        <v>27.421718844852563</v>
+      </c>
+      <c r="E28" s="2">
+        <v>647.97665306518843</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3.9659864905454123E-11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.46550891280805512</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4.2318992073459558E-2</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3">
+        <v>27.887227757660618</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5.7940582881916018</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.13467260630367825</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43.023287713956954</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.3038945566491701E-13</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5.4976458802463419</v>
+      </c>
+      <c r="G33" s="2">
+        <v>6.0904706961368618</v>
+      </c>
+      <c r="H33" s="2">
+        <v>5.4976458802463419</v>
+      </c>
+      <c r="I33" s="2">
+        <v>6.0904706961368618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3">
+        <v>-7.7632154385107011E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3.0497339849210321E-3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-25.455385541476062</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3.9659864905454123E-11</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-8.4344573628145333E-2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>-7.0919735142068688E-2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>-8.4344573628145333E-2</v>
+      </c>
+      <c r="I34" s="3">
+        <v>-7.0919735142068688E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <f>(B33+B34*A2)-(B33+B34*A3)</f>
+        <v>0.38816077192553511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <f>EXP(B36)</f>
+        <v>1.4742667859459537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6">
+        <f>LN(1.5)/-5</f>
+        <v>-8.1093021621632871E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <f>(40000*E15)/(PI()*H15)</f>
+        <v>378.37269288718687</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="6">
+        <f>LN(B40)</f>
+        <v>5.9358796698992746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>